--- a/VARIABLES/plata_filtrat.xlsx
+++ b/VARIABLES/plata_filtrat.xlsx
@@ -591,7 +591,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45541</v>
       </c>
       <c r="B7" t="n">
         <v>29.627</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45445</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="n">
         <v>29.595</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45424</v>
+        <v>45631</v>
       </c>
       <c r="B11" t="n">
         <v>31.118</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>28.48</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361</v>
+        <v>45568</v>
       </c>
       <c r="B20" t="n">
         <v>25.256</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45333</v>
+        <v>45598</v>
       </c>
       <c r="B24" t="n">
         <v>23.584</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45326</v>
+        <v>45384</v>
       </c>
       <c r="B25" t="n">
         <v>22.706</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
         <v>23.329</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45270</v>
+        <v>45211</v>
       </c>
       <c r="B33" t="n">
         <v>24.154</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45263</v>
+        <v>44997</v>
       </c>
       <c r="B34" t="n">
         <v>22.971</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45242</v>
+        <v>45271</v>
       </c>
       <c r="B37" t="n">
         <v>23.852</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45235</v>
+        <v>45057</v>
       </c>
       <c r="B38" t="n">
         <v>22.281</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45207</v>
+        <v>45148</v>
       </c>
       <c r="B42" t="n">
         <v>22.895</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>44936</v>
       </c>
       <c r="B43" t="n">
         <v>21.723</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45179</v>
+        <v>45208</v>
       </c>
       <c r="B46" t="n">
         <v>23.386</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45172</v>
+        <v>44994</v>
       </c>
       <c r="B47" t="n">
         <v>23.174</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45144</v>
+        <v>45085</v>
       </c>
       <c r="B51" t="n">
         <v>22.743</v>

--- a/VARIABLES/plata_filtrat.xlsx
+++ b/VARIABLES/plata_filtrat.xlsx
@@ -736,7 +736,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45633</v>
+        <v>45485</v>
       </c>
       <c r="B10" t="n">
         <v>31.162</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45603</v>
+        <v>45484</v>
       </c>
       <c r="B11" t="n">
         <v>31.671</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45572</v>
+        <v>45483</v>
       </c>
       <c r="B12" t="n">
         <v>31.014</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45542</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
         <v>31.056</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="B14" t="n">
         <v>30.913</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45419</v>
+        <v>45478</v>
       </c>
       <c r="B15" t="n">
         <v>31.689</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389</v>
+        <v>45477</v>
       </c>
       <c r="B16" t="n">
         <v>30.65</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="n">
         <v>30.842</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45329</v>
+        <v>45475</v>
       </c>
       <c r="B18" t="n">
         <v>29.658</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45298</v>
+        <v>45474</v>
       </c>
       <c r="B19" t="n">
         <v>29.613</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45632</v>
+        <v>45455</v>
       </c>
       <c r="B32" t="n">
         <v>30.591</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45602</v>
+        <v>45454</v>
       </c>
       <c r="B33" t="n">
         <v>29.548</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45571</v>
+        <v>45453</v>
       </c>
       <c r="B34" t="n">
         <v>30.195</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45479</v>
+        <v>45450</v>
       </c>
       <c r="B35" t="n">
         <v>29.761</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="B37" t="n">
         <v>30.395</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45447</v>
       </c>
       <c r="B38" t="n">
         <v>29.935</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45357</v>
+        <v>45446</v>
       </c>
       <c r="B39" t="n">
         <v>31.112</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45570</v>
+        <v>45422</v>
       </c>
       <c r="B56" t="n">
         <v>28.374</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45540</v>
+        <v>45421</v>
       </c>
       <c r="B57" t="n">
         <v>28.233</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45509</v>
+        <v>45420</v>
       </c>
       <c r="B58" t="n">
         <v>27.474</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45478</v>
+        <v>45419</v>
       </c>
       <c r="B59" t="n">
         <v>27.419</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45448</v>
+        <v>45418</v>
       </c>
       <c r="B60" t="n">
         <v>27.491</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45356</v>
+        <v>45415</v>
       </c>
       <c r="B61" t="n">
         <v>26.69</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45327</v>
+        <v>45414</v>
       </c>
       <c r="B62" t="n">
         <v>26.829</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="B63" t="n">
         <v>26.748</v>

--- a/VARIABLES/plata_filtrat.xlsx
+++ b/VARIABLES/plata_filtrat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,1734 +476,1701 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="B2" t="n">
-        <v>27.817</v>
+        <v>29.578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27,535</t>
+          <t>29,080</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28,105</t>
+          <t>30,025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27,293</t>
+          <t>28,785</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63,77K</t>
+          <t>192,82K</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="B3" t="n">
-        <v>27.588</v>
+        <v>28.849</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28,675</t>
+          <t>27,550</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28,815</t>
+          <t>29,095</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26,505</t>
+          <t>27,230</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>390,49K</t>
+          <t>336,69K</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="B4" t="n">
-        <v>28.392</v>
+        <v>27.588</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28,060</t>
+          <t>28,675</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29,355</t>
+          <t>28,815</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27,375</t>
+          <t>26,505</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>296,44K</t>
+          <t>390,49K</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,90%</t>
+          <t>-2,83%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="B5" t="n">
-        <v>27.862</v>
+        <v>28.392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29,265</t>
+          <t>28,060</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29,450</t>
+          <t>29,355</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27,440</t>
+          <t>27,375</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2,48K</t>
+          <t>296,44K</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>1,90%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="B6" t="n">
-        <v>29.134</v>
+        <v>27.862</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30,900</t>
+          <t>29,265</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31,425</t>
+          <t>29,450</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28,930</t>
+          <t>27,440</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,50K</t>
+          <t>2,48K</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-4,37%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="B7" t="n">
-        <v>30.987</v>
+        <v>29.134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31,300</t>
+          <t>30,900</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31,770</t>
+          <t>31,425</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30,510</t>
+          <t>28,930</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2,79K</t>
+          <t>4,50K</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-5,98%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="B8" t="n">
-        <v>31.689</v>
+        <v>30.987</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29,445</t>
+          <t>31,300</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31,790</t>
+          <t>31,770</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29,250</t>
+          <t>30,510</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>273,72K</t>
+          <t>2,79K</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7,20%</t>
+          <t>-2,22%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45466</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="n">
-        <v>29.56</v>
+        <v>31.689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29,750</t>
+          <t>29,445</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29,955</t>
+          <t>31,790</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28,755</t>
+          <t>29,250</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>117,66K</t>
+          <t>273,72K</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>7,20%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45459</v>
+        <v>45466</v>
       </c>
       <c r="B10" t="n">
-        <v>29.776</v>
+        <v>29.56</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29,710</t>
+          <t>29,750</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31,025</t>
+          <t>29,955</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29,185</t>
+          <t>28,755</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,83K</t>
+          <t>117,66K</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,50%</t>
+          <t>-0,73%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45452</v>
+        <v>45459</v>
       </c>
       <c r="B11" t="n">
-        <v>29.627</v>
+        <v>29.776</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29,455</t>
+          <t>29,710</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30,420</t>
+          <t>31,025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28,900</t>
+          <t>29,185</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,29K</t>
+          <t>1,83K</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,50%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45445</v>
+        <v>45452</v>
       </c>
       <c r="B12" t="n">
-        <v>29.595</v>
+        <v>29.627</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30,765</t>
+          <t>29,455</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31,780</t>
+          <t>30,420</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29,405</t>
+          <t>28,900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,06K</t>
+          <t>1,29K</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45438</v>
+        <v>45445</v>
       </c>
       <c r="B13" t="n">
-        <v>30.44</v>
+        <v>29.595</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30,410</t>
+          <t>30,765</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32,310</t>
+          <t>31,780</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30,345</t>
+          <t>29,405</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>213,10K</t>
+          <t>1,06K</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-2,78%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45431</v>
+        <v>45438</v>
       </c>
       <c r="B14" t="n">
-        <v>30.346</v>
+        <v>30.44</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31,645</t>
+          <t>30,410</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32,570</t>
+          <t>32,310</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30,100</t>
+          <t>30,345</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14,62K</t>
+          <t>213,10K</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45424</v>
+        <v>45431</v>
       </c>
       <c r="B15" t="n">
-        <v>31.118</v>
+        <v>30.346</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28,275</t>
+          <t>31,645</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>31,655</t>
+          <t>32,570</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28,090</t>
+          <t>30,100</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5,12K</t>
+          <t>14,62K</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>-2,48%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45417</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
-        <v>28.374</v>
+        <v>31.118</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26,675</t>
+          <t>28,275</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28,860</t>
+          <t>31,655</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26,675</t>
+          <t>28,090</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7,01K</t>
+          <t>5,12K</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45410</v>
+        <v>45417</v>
       </c>
       <c r="B17" t="n">
-        <v>26.69</v>
+        <v>28.374</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27,500</t>
+          <t>26,675</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27,735</t>
+          <t>28,860</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26,255</t>
+          <t>26,675</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>343,64K</t>
+          <t>7,01K</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2,60%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403</v>
+        <v>45410</v>
       </c>
       <c r="B18" t="n">
-        <v>27.402</v>
+        <v>26.69</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28,780</t>
+          <t>27,500</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28,820</t>
+          <t>27,735</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26,855</t>
+          <t>26,255</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3,84K</t>
+          <t>343,64K</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-5,50%</t>
+          <t>-2,60%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45396</v>
+        <v>45403</v>
       </c>
       <c r="B19" t="n">
-        <v>28.998</v>
+        <v>27.402</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28,380</t>
+          <t>28,780</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29,240</t>
+          <t>28,820</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27,810</t>
+          <t>26,855</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2,05K</t>
+          <t>3,84K</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>-5,50%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="n">
-        <v>28.48</v>
+        <v>28.998</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27,435</t>
+          <t>28,380</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29,995</t>
+          <t>29,240</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27,145</t>
+          <t>27,810</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2,18K</t>
+          <t>2,05K</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="n">
-        <v>27.503</v>
+        <v>28.48</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>25,140</t>
+          <t>27,435</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27,615</t>
+          <t>29,995</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24,855</t>
+          <t>27,145</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>595,65K</t>
+          <t>2,18K</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45375</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="n">
-        <v>24.916</v>
+        <v>27.503</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24,730</t>
+          <t>25,140</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25,130</t>
+          <t>27,615</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24,425</t>
+          <t>24,855</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>132,63K</t>
+          <t>595,65K</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="n">
-        <v>24.717</v>
+        <v>24.916</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>25,275</t>
+          <t>24,730</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25,800</t>
+          <t>25,130</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24,465</t>
+          <t>24,425</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1,93K</t>
+          <t>132,63K</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361</v>
+        <v>45368</v>
       </c>
       <c r="B24" t="n">
-        <v>25.256</v>
+        <v>24.717</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24,405</t>
+          <t>25,275</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25,515</t>
+          <t>25,800</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24,145</t>
+          <t>24,465</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,67K</t>
+          <t>1,93K</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>-2,13%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45354</v>
+        <v>45361</v>
       </c>
       <c r="B25" t="n">
-        <v>24.549</v>
+        <v>25.256</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23,370</t>
+          <t>24,405</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24,860</t>
+          <t>25,515</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23,230</t>
+          <t>24,145</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>440,06K</t>
+          <t>1,67K</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B26" t="n">
-        <v>23.364</v>
+        <v>24.549</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23,030</t>
+          <t>23,370</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23,485</t>
+          <t>24,860</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>22,470</t>
+          <t>23,230</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>173,32K</t>
+          <t>440,06K</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,20%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45340</v>
+        <v>45347</v>
       </c>
       <c r="B27" t="n">
-        <v>23.087</v>
+        <v>23.364</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23,530</t>
+          <t>23,030</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23,530</t>
+          <t>23,485</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22,735</t>
+          <t>22,470</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,73K</t>
+          <t>173,32K</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>1,20%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45333</v>
+        <v>45340</v>
       </c>
       <c r="B28" t="n">
-        <v>23.584</v>
+        <v>23.087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22,995</t>
+          <t>23,530</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>23,630</t>
+          <t>23,530</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22,120</t>
+          <t>22,735</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,13K</t>
+          <t>0,73K</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>-2,11%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45326</v>
+        <v>45333</v>
       </c>
       <c r="B29" t="n">
-        <v>22.706</v>
+        <v>23.584</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22,770</t>
+          <t>22,995</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22,870</t>
+          <t>23,630</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22,395</t>
+          <t>22,120</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,07K</t>
+          <t>0,13K</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319</v>
+        <v>45326</v>
       </c>
       <c r="B30" t="n">
-        <v>22.796</v>
+        <v>22.706</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>22,920</t>
+          <t>22,770</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23,445</t>
+          <t>22,870</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22,485</t>
+          <t>22,395</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>205,77K</t>
+          <t>0,07K</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45312</v>
+        <v>45319</v>
       </c>
       <c r="B31" t="n">
-        <v>22.872</v>
+        <v>22.796</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22,750</t>
+          <t>22,920</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23,148</t>
+          <t>23,445</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22,043</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>22,485</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>205,77K</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45305</v>
+        <v>45312</v>
       </c>
       <c r="B32" t="n">
-        <v>22.711</v>
+        <v>22.872</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23,350</t>
+          <t>22,750</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23,497</t>
+          <t>23,148</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22,555</t>
+          <t>22,043</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45305</v>
       </c>
       <c r="B33" t="n">
-        <v>23.329</v>
+        <v>22.711</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>23,348</t>
+          <t>23,350</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23,720</t>
+          <t>23,497</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22,633</t>
+          <t>22,555</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-2,65%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="n">
-        <v>23.315</v>
+        <v>23.329</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>24,027</t>
+          <t>23,348</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>24,335</t>
+          <t>23,720</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22,883</t>
+          <t>22,633</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>0,06%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B35" t="n">
-        <v>24.025</v>
+        <v>23.315</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>24,475</t>
+          <t>24,027</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24,738</t>
+          <t>24,335</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23,762</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>27,81K</t>
-        </is>
-      </c>
+          <t>22,883</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-2,20%</t>
+          <t>-2,96%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B36" t="n">
-        <v>24.565</v>
+        <v>24.025</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>24,125</t>
+          <t>24,475</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>24,895</t>
+          <t>24,738</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23,955</t>
+          <t>23,762</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>173,96K</t>
+          <t>27,81K</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1,70%</t>
+          <t>-2,20%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B37" t="n">
-        <v>24.154</v>
+        <v>24.565</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23,300</t>
+          <t>24,125</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>24,590</t>
+          <t>24,895</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22,785</t>
+          <t>23,955</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>291,53K</t>
+          <t>173,96K</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,70%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B38" t="n">
-        <v>22.971</v>
+        <v>24.154</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>25,590</t>
+          <t>23,300</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>25,935</t>
+          <t>24,590</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>22,970</t>
+          <t>22,785</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,75K</t>
+          <t>291,53K</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B39" t="n">
-        <v>25.499</v>
+        <v>22.971</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>24,375</t>
+          <t>25,590</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>25,565</t>
+          <t>25,935</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>24,320</t>
+          <t>22,970</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>143,69K</t>
+          <t>0,75K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>-9,91%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B40" t="n">
-        <v>24.341</v>
+        <v>25.499</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23,770</t>
+          <t>24,375</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>24,395</t>
+          <t>25,565</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23,302</t>
+          <t>24,320</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>66,33K</t>
+          <t>143,69K</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B41" t="n">
-        <v>23.852</v>
+        <v>24.341</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22,312</t>
+          <t>23,770</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24,220</t>
+          <t>24,395</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21,927</t>
+          <t>23,302</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>54,40K</t>
+          <t>66,33K</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B42" t="n">
-        <v>22.281</v>
+        <v>23.852</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23,335</t>
+          <t>22,312</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23,360</t>
+          <t>24,220</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22,230</t>
+          <t>21,927</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>261,92K</t>
+          <t>54,40K</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B43" t="n">
-        <v>23.285</v>
+        <v>22.281</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23,245</t>
+          <t>23,335</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>23,750</t>
+          <t>23,360</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22,645</t>
+          <t>22,230</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>214,66K</t>
+          <t>261,92K</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>-4,31%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B44" t="n">
-        <v>22.887</v>
+        <v>23.285</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23,505</t>
+          <t>23,245</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23,505</t>
+          <t>23,750</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>22,565</t>
+          <t>22,645</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>214,23K</t>
+          <t>214,66K</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B45" t="n">
-        <v>23.504</v>
+        <v>22.887</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22,910</t>
+          <t>23,505</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>23,880</t>
+          <t>23,505</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22,535</t>
+          <t>22,565</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>210,04K</t>
+          <t>214,23K</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>-2,63%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="B46" t="n">
-        <v>22.895</v>
+        <v>23.504</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21,940</t>
+          <t>22,910</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22,990</t>
+          <t>23,880</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>21,705</t>
+          <t>22,535</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>198,40K</t>
+          <t>210,04K</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5,40%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B47" t="n">
-        <v>21.723</v>
+        <v>22.895</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22,410</t>
+          <t>21,940</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22,410</t>
+          <t>22,990</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20,850</t>
+          <t>21,705</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>307,06K</t>
+          <t>198,40K</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>5,40%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B48" t="n">
-        <v>22.45</v>
+        <v>21.723</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23,810</t>
+          <t>22,410</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>23,925</t>
+          <t>22,410</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22,325</t>
+          <t>20,850</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>242,33K</t>
+          <t>307,06K</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>-3,24%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B49" t="n">
-        <v>23.844</v>
+        <v>22.45</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23,320</t>
+          <t>23,810</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>24,050</t>
+          <t>23,925</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23,060</t>
+          <t>22,325</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>218,55K</t>
+          <t>242,33K</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>-5,85%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45179</v>
+        <v>45186</v>
       </c>
       <c r="B50" t="n">
-        <v>23.386</v>
+        <v>23.844</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>23,195</t>
+          <t>23,320</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>23,585</t>
+          <t>24,050</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>22,555</t>
+          <t>23,060</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>218,75K</t>
+          <t>218,55K</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45172</v>
+        <v>45179</v>
       </c>
       <c r="B51" t="n">
-        <v>23.174</v>
+        <v>23.386</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>24,565</t>
+          <t>23,195</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>24,655</t>
+          <t>23,585</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>23,130</t>
+          <t>22,555</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>209,56K</t>
+          <t>218,75K</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45165</v>
+        <v>45172</v>
       </c>
       <c r="B52" t="n">
-        <v>24.562</v>
+        <v>23.174</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24,620</t>
+          <t>24,565</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,425</t>
+          <t>24,655</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>24,450</t>
+          <t>23,130</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>198,51K</t>
+          <t>209,56K</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-5,65%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="B53" t="n">
-        <v>24.234</v>
+        <v>24.562</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22,795</t>
+          <t>24,620</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24,440</t>
+          <t>25,425</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>22,710</t>
+          <t>24,450</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>278,91K</t>
+          <t>198,51K</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6,60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45151</v>
-      </c>
-      <c r="B54" t="n">
-        <v>22.733</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>22,745</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>23,067</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>22,273</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>54,78K</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
